--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Mmp9</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Mmp9</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>200.5095213333333</v>
+        <v>0.001904333333333333</v>
       </c>
       <c r="H2">
-        <v>601.528564</v>
+        <v>0.005713</v>
       </c>
       <c r="I2">
-        <v>0.9975440586742312</v>
+        <v>0.01334809965397277</v>
       </c>
       <c r="J2">
-        <v>0.9975440586742312</v>
+        <v>0.01334809965397277</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>3442.052713254307</v>
+        <v>0.003860303299777778</v>
       </c>
       <c r="R2">
-        <v>30978.47441928877</v>
+        <v>0.034742729698</v>
       </c>
       <c r="S2">
-        <v>0.05589692217107675</v>
+        <v>8.804786372517015E-05</v>
       </c>
       <c r="T2">
-        <v>0.05589692217107675</v>
+        <v>8.804786372517014E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>200.5095213333333</v>
+        <v>0.001904333333333333</v>
       </c>
       <c r="H3">
-        <v>601.528564</v>
+        <v>0.005713</v>
       </c>
       <c r="I3">
-        <v>0.9975440586742312</v>
+        <v>0.01334809965397277</v>
       </c>
       <c r="J3">
-        <v>0.9975440586742312</v>
+        <v>0.01334809965397277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>51419.52491104584</v>
+        <v>0.4883554387897778</v>
       </c>
       <c r="R3">
-        <v>462775.7241994126</v>
+        <v>4.395198949108</v>
       </c>
       <c r="S3">
-        <v>0.8350229997811538</v>
+        <v>0.01113867221948164</v>
       </c>
       <c r="T3">
-        <v>0.8350229997811538</v>
+        <v>0.01113867221948163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>200.5095213333333</v>
+        <v>0.001904333333333333</v>
       </c>
       <c r="H4">
-        <v>601.528564</v>
+        <v>0.005713</v>
       </c>
       <c r="I4">
-        <v>0.9975440586742312</v>
+        <v>0.01334809965397277</v>
       </c>
       <c r="J4">
-        <v>0.9975440586742312</v>
+        <v>0.01334809965397277</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>6565.76220742729</v>
+        <v>0.0930081459178889</v>
       </c>
       <c r="R4">
-        <v>59091.85986684562</v>
+        <v>0.8370733132610001</v>
       </c>
       <c r="S4">
-        <v>0.1066241367220006</v>
+        <v>0.002121379570765966</v>
       </c>
       <c r="T4">
-        <v>0.1066241367220006</v>
+        <v>0.002121379570765965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +726,10 @@
         <v>0.422288</v>
       </c>
       <c r="I5">
-        <v>0.000700300718303751</v>
+        <v>0.9866519003460271</v>
       </c>
       <c r="J5">
-        <v>0.0007003007183037508</v>
+        <v>0.9866519003460271</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>2.416406540213334</v>
+        <v>0.2853421599608889</v>
       </c>
       <c r="R5">
-        <v>21.74765886192001</v>
+        <v>2.568079439648</v>
       </c>
       <c r="S5">
-        <v>3.924102841071345E-05</v>
+        <v>0.006508236701693444</v>
       </c>
       <c r="T5">
-        <v>3.924102841071344E-05</v>
+        <v>0.006508236701693444</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +788,10 @@
         <v>0.422288</v>
       </c>
       <c r="I6">
-        <v>0.000700300718303751</v>
+        <v>0.9866519003460271</v>
       </c>
       <c r="J6">
-        <v>0.0007003007183037508</v>
+        <v>0.9866519003460271</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>36.09778427020089</v>
@@ -818,10 +818,10 @@
         <v>324.880058431808</v>
       </c>
       <c r="S6">
-        <v>0.0005862068962889415</v>
+        <v>0.8233375834448557</v>
       </c>
       <c r="T6">
-        <v>0.0005862068962889414</v>
+        <v>0.8233375834448556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,10 +850,10 @@
         <v>0.422288</v>
       </c>
       <c r="I7">
-        <v>0.000700300718303751</v>
+        <v>0.9866519003460271</v>
       </c>
       <c r="J7">
-        <v>0.0007003007183037508</v>
+        <v>0.9866519003460271</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>4.609328229756445</v>
+        <v>6.874886035948446</v>
       </c>
       <c r="R7">
-        <v>41.483954067808</v>
+        <v>61.873974323536</v>
       </c>
       <c r="S7">
-        <v>7.48527936040959E-05</v>
+        <v>0.156806080199478</v>
       </c>
       <c r="T7">
-        <v>7.485279360409589E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.3528893333333333</v>
-      </c>
-      <c r="H8">
-        <v>1.058668</v>
-      </c>
-      <c r="I8">
-        <v>0.001755640607465037</v>
-      </c>
-      <c r="J8">
-        <v>0.001755640607465036</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>17.16653000000001</v>
-      </c>
-      <c r="N8">
-        <v>51.49959000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.05603453971282792</v>
-      </c>
-      <c r="P8">
-        <v>0.05603453971282792</v>
-      </c>
-      <c r="Q8">
-        <v>6.057885327346669</v>
-      </c>
-      <c r="R8">
-        <v>54.52096794612001</v>
-      </c>
-      <c r="S8">
-        <v>9.837651334045292E-05</v>
-      </c>
-      <c r="T8">
-        <v>9.83765133404529E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.3528893333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.058668</v>
-      </c>
-      <c r="I9">
-        <v>0.001755640607465037</v>
-      </c>
-      <c r="J9">
-        <v>0.001755640607465036</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>256.4443053333333</v>
-      </c>
-      <c r="N9">
-        <v>769.332916</v>
-      </c>
-      <c r="O9">
-        <v>0.8370788162388805</v>
-      </c>
-      <c r="P9">
-        <v>0.8370788162388805</v>
-      </c>
-      <c r="Q9">
-        <v>90.49645994620977</v>
-      </c>
-      <c r="R9">
-        <v>814.4681395158879</v>
-      </c>
-      <c r="S9">
-        <v>0.001469609561437742</v>
-      </c>
-      <c r="T9">
-        <v>0.001469609561437742</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.3528893333333333</v>
-      </c>
-      <c r="H10">
-        <v>1.058668</v>
-      </c>
-      <c r="I10">
-        <v>0.001755640607465037</v>
-      </c>
-      <c r="J10">
-        <v>0.001755640607465036</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>32.74538866666666</v>
-      </c>
-      <c r="N10">
-        <v>98.236166</v>
-      </c>
-      <c r="O10">
-        <v>0.1068866440482915</v>
-      </c>
-      <c r="P10">
-        <v>0.1068866440482915</v>
-      </c>
-      <c r="Q10">
-        <v>11.55549837632089</v>
-      </c>
-      <c r="R10">
-        <v>103.999485386888</v>
-      </c>
-      <c r="S10">
-        <v>0.0001876545326868417</v>
-      </c>
-      <c r="T10">
-        <v>0.0001876545326868416</v>
+        <v>0.156806080199478</v>
       </c>
     </row>
   </sheetData>
